--- a/docs/resources/scenarios/hr-schedule.xlsx
+++ b/docs/resources/scenarios/hr-schedule.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24125"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoft-my.sharepoint-df.com/personal/suramam_microsoft_com/Documents/OScripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40C101F6-DB11-4727-AAD1-4BA6AE269E89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1E5E6E0-1FB7-4330-928C-D9A7C58F58E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Interviews" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="Constants" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="MeetingDuration">Sheet1!$B$1</definedName>
+    <definedName name="MeetingDuration">Constants!$B$1</definedName>
   </definedNames>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -28,6 +28,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,12 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>Invite to interview</t>
+    <t>Invite Sent?</t>
   </si>
   <si>
     <t>Candidate</t>
@@ -49,97 +50,59 @@
     <t>Candidate email</t>
   </si>
   <si>
-    <t>Candidate contact</t>
-  </si>
-  <si>
-    <t>Interviewer1</t>
-  </si>
-  <si>
-    <t>Interviewer1 email</t>
-  </si>
-  <si>
-    <t>Start time1</t>
-  </si>
-  <si>
-    <t>Interviewer2</t>
-  </si>
-  <si>
-    <t>Interviewer2 email</t>
-  </si>
-  <si>
-    <t>Start time2</t>
+    <t>Interviewer</t>
+  </si>
+  <si>
+    <t>Interviewer email</t>
+  </si>
+  <si>
+    <t>Start time</t>
   </si>
   <si>
     <t xml:space="preserve">Adele </t>
   </si>
   <si>
-    <t>AdeleV@M365x904181.OnMicrosoft.com</t>
+    <t>AdeleV@contoso.com</t>
   </si>
   <si>
     <t>Megan</t>
   </si>
   <si>
-    <t>MeganB@M365x904181.OnMicrosoft.com</t>
-  </si>
-  <si>
-    <t>Tue, 03 Nov 2020 14:00:00 PST</t>
-  </si>
-  <si>
-    <t>Pattie</t>
-  </si>
-  <si>
-    <t>PattiF@M365x904181.OnMicrosoft.com</t>
-  </si>
-  <si>
-    <t>Tue, 03 Nov 2020 10:30:00 PST</t>
+    <t>MeganB@contoso.com</t>
   </si>
   <si>
     <t xml:space="preserve">Alex </t>
   </si>
   <si>
-    <t>AlexW@M365x904181.OnMicrosoft.com</t>
+    <t>AlexW@contoso.com</t>
   </si>
   <si>
     <t>Miriam</t>
   </si>
   <si>
-    <t>MiriamG@M365x904181.OnMicrosoft.com</t>
-  </si>
-  <si>
-    <t>Tue, 03 Nov 2020 2:00:00 PST</t>
-  </si>
-  <si>
-    <t>Pradeep</t>
-  </si>
-  <si>
-    <t>PradeepG@M365x904181.OnMicrosoft.com</t>
+    <t>MiriamG@contoso.com</t>
   </si>
   <si>
     <t xml:space="preserve">Allan </t>
   </si>
   <si>
-    <t>AllanD@M365x904181.OnMicrosoft.com</t>
+    <t>AllanD@contoso.com</t>
   </si>
   <si>
     <t>Nestor</t>
   </si>
   <si>
-    <t>NestorW@M365x904181.OnMicrosoft.com</t>
-  </si>
-  <si>
-    <t>Tue, 03 Nov 2020 9:00:00 PST</t>
-  </si>
-  <si>
-    <t>Raul</t>
-  </si>
-  <si>
-    <t>RaulR@M365x904181.OnMicrosoft.com</t>
-  </si>
-  <si>
-    <t>Tue, 03 Nov 2020 15:00:00 PST</t>
+    <t>NestorW@contoso.com</t>
   </si>
   <si>
     <t>Meeting duration</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>Hello _Candidate_,
+You have been selected for an interview with Contoso. Your interviewer is _Interviewer_.</t>
   </si>
 </sst>
 </file>
@@ -149,7 +112,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]m/d/yyyy\ h:mm\ AM/PM;@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,12 +138,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -211,88 +168,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="[$-409]m/d/yyyy\ h:mm\ AM/PM;@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <b val="0"/>
@@ -387,30 +279,6 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -426,22 +294,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{276CDFF2-682F-4A69-A24D-6527079BB83E}" name="Table42" displayName="Table42" ref="A1:K4" totalsRowShown="0" headerRowDxfId="8">
-  <autoFilter ref="A1:K4" xr:uid="{845C5392-4782-4799-9F93-7591B47CF709}"/>
-  <tableColumns count="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{276CDFF2-682F-4A69-A24D-6527079BB83E}" name="InterviewTable" displayName="InterviewTable" ref="A1:G4" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A1:G4" xr:uid="{845C5392-4782-4799-9F93-7591B47CF709}"/>
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{8BBF7CFF-A625-47C1-A77A-5E682195106C}" name="ID"/>
-    <tableColumn id="2" xr3:uid="{C0F0516E-075F-4959-88C5-3A242E8F0348}" name="Invite to interview"/>
-    <tableColumn id="3" xr3:uid="{642EDCB6-E100-4219-BF90-87FFC18A0533}" name="Candidate" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{C0F0516E-075F-4959-88C5-3A242E8F0348}" name="Invite Sent?"/>
+    <tableColumn id="3" xr3:uid="{642EDCB6-E100-4219-BF90-87FFC18A0533}" name="Candidate" dataDxfId="3"/>
     <tableColumn id="4" xr3:uid="{90163E25-6B84-4C4D-9BBE-3148184A9816}" name="Candidate email"/>
-    <tableColumn id="13" xr3:uid="{E5AE847B-99CD-47C4-B21B-5AF8C282DD93}" name="Candidate contact" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{695ABC8D-4502-4FB5-9C15-AC00B576849F}" name="Interviewer1" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{94EEF6A6-CF1C-44D8-B49E-2C8C010B4575}" name="Interviewer1 email" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{F1C50CFE-13F6-4050-8BF5-A883D9E6C7F3}" name="Start time1" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{1E9B7B76-881A-41BF-A0C8-A5888DD7F6C6}" name="Interviewer2" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{EBF49B38-AF53-4E0F-8A73-B315F2D4A3FD}" name="Interviewer2 email" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{342C5327-2812-411E-A650-E0DA858A8769}" name="Start time2" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{695ABC8D-4502-4FB5-9C15-AC00B576849F}" name="Interviewer" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{94EEF6A6-CF1C-44D8-B49E-2C8C010B4575}" name="Interviewer email" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{F1C50CFE-13F6-4050-8BF5-A883D9E6C7F3}" name="Start time" dataDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -742,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D2572F9-5A69-4991-940A-23ADB21B0690}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -753,21 +617,17 @@
     <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="39.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="40.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15">
+    <row r="1" spans="1:7" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -779,26 +639,14 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="2" spans="1:11" ht="15">
+    <row r="2" spans="1:7" ht="15">
       <c r="A2">
         <v>10</v>
       </c>
@@ -806,138 +654,118 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1234567899</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>18</v>
+        <v>7</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2">
+        <f ca="1">INT((TODAY()/14)+1)*14 + 0.375</f>
+        <v>44352.375</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15">
+    <row r="3" spans="1:7" ht="15">
       <c r="A3">
         <v>20</v>
       </c>
       <c r="B3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1234567898</v>
+        <v>11</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
+      </c>
+      <c r="G3" s="2">
+        <f ca="1">INT((TODAY()/14)+1)*14 + 0.5</f>
+        <v>44352.5</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15">
+    <row r="4" spans="1:7" ht="15">
       <c r="A4">
         <v>30</v>
       </c>
       <c r="B4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1234567978</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>33</v>
+        <v>15</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="2">
+        <f ca="1">INT((TODAY()/14)+1)*14 + 0.625</f>
+        <v>44352.625</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15">
-      <c r="H7" s="2"/>
+    <row r="7" spans="1:7" ht="15">
+      <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:11" ht="15"/>
+    <row r="8" spans="1:7" ht="15"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{E4550EA3-DE0D-41DB-B0A0-6CB8EAC7B824}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{C8B335DB-100C-4B03-B169-26A2D21F13AE}"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{E4550EA3-DE0D-41DB-B0A0-6CB8EAC7B824}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{C8B335DB-100C-4B03-B169-26A2D21F13AE}"/>
+    <hyperlink ref="D2" r:id="rId3" xr:uid="{4BDC4D93-190C-4214-A41D-256406C4FBD3}"/>
+    <hyperlink ref="D3" r:id="rId4" xr:uid="{E57BCDF5-58F3-4B22-9FE5-B103C797006D}"/>
+    <hyperlink ref="D4" r:id="rId5" xr:uid="{153D1290-6ECE-4619-B78C-BD92C54F8B89}"/>
+    <hyperlink ref="F4" r:id="rId6" xr:uid="{4DF663AD-905A-4767-9E38-C58F328E3D32}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4971831-B5BC-4293-8B6D-F44A5019AD36}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="46.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B1">
         <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="47.25" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
